--- a/Testing Results/Hyperparameter_Tuning_Tables.xlsx
+++ b/Testing Results/Hyperparameter_Tuning_Tables.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Dissertation_Project\Testing Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FAAC64E-2FBC-4BA0-B86D-F6B8D74F0D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31AB26A4-4E5A-47CE-A53F-3ABF7AACCF71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-225" windowWidth="29040" windowHeight="15720" xr2:uid="{9EB86389-067C-4E81-999F-819E633B374F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="59">
   <si>
     <t>maxIter</t>
   </si>
@@ -89,10 +89,130 @@
     <t>NN</t>
   </si>
   <si>
-    <t>Validation Loss</t>
-  </si>
-  <si>
     <t>LSTM</t>
+  </si>
+  <si>
+    <t>Neural Network</t>
+  </si>
+  <si>
+    <t>units_first_layer</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>l1_first_layer</t>
+  </si>
+  <si>
+    <t>l2_first_layer</t>
+  </si>
+  <si>
+    <t>dropout_first_layer</t>
+  </si>
+  <si>
+    <t>units_second_layer</t>
+  </si>
+  <si>
+    <t>l1_second_layer</t>
+  </si>
+  <si>
+    <t>l2_second_layer</t>
+  </si>
+  <si>
+    <t>dropout_second_layer</t>
+  </si>
+  <si>
+    <t>Value Pool</t>
+  </si>
+  <si>
+    <t>units_third_layer</t>
+  </si>
+  <si>
+    <t>l1_third_layer</t>
+  </si>
+  <si>
+    <t>l2_third_layer</t>
+  </si>
+  <si>
+    <t>dropout_third_layer</t>
+  </si>
+  <si>
+    <t>optimizer</t>
+  </si>
+  <si>
+    <t>adam_learning_rate</t>
+  </si>
+  <si>
+    <t>adam_beta_1</t>
+  </si>
+  <si>
+    <t>adam_beta_2</t>
+  </si>
+  <si>
+    <t>sgd_learning_rate</t>
+  </si>
+  <si>
+    <t>sgd_momentum</t>
+  </si>
+  <si>
+    <t>nadam_learning_rate</t>
+  </si>
+  <si>
+    <t>nadam_beta_1</t>
+  </si>
+  <si>
+    <t>nadam_beta_2</t>
+  </si>
+  <si>
+    <t>rmsprop_learning_rate</t>
+  </si>
+  <si>
+    <t>rmsprop_rho</t>
+  </si>
+  <si>
+    <t>[16, 128]</t>
+  </si>
+  <si>
+    <t>[1e-7, 1e-1]</t>
+  </si>
+  <si>
+    <t>Log Sampling</t>
+  </si>
+  <si>
+    <t>[0.0, 0.7]</t>
+  </si>
+  <si>
+    <t>[sgd, adam, rmsprop, nadam]</t>
+  </si>
+  <si>
+    <t>[1e-5, 1e-2]</t>
+  </si>
+  <si>
+    <t>[0.85, 0.95]</t>
+  </si>
+  <si>
+    <t>[0.99, 0.999]</t>
+  </si>
+  <si>
+    <t>[0.1, 0.9]</t>
+  </si>
+  <si>
+    <t>LSTM Neural Network</t>
+  </si>
+  <si>
+    <t>Optimal Values</t>
+  </si>
+  <si>
+    <t>nadam</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -</t>
+  </si>
+  <si>
+    <t>rmsprop</t>
+  </si>
+  <si>
+    <t>SEED 42</t>
   </si>
 </sst>
 </file>
@@ -108,15 +228,45 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -293,11 +443,322 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -308,7 +769,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -323,9 +784,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -353,9 +811,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -365,36 +820,227 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -730,16 +1376,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E60E1A9-7450-454B-8259-67D71C31F0AF}">
-  <dimension ref="E3:Y26"/>
+  <dimension ref="E3:Y71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14:U14"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="U25" sqref="U25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -749,540 +1400,1461 @@
       <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="13"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="94"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="O4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="10" t="s">
+      <c r="P4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="T4" s="29"/>
-      <c r="U4" s="19" t="s">
+      <c r="T4" s="1"/>
+      <c r="U4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="V4" s="30" t="s">
+      <c r="V4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="W4" s="30" t="s">
+      <c r="W4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="X4" s="30" t="s">
+      <c r="X4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="Y4" s="32" t="s">
-        <v>17</v>
-      </c>
+      <c r="Y4" s="4"/>
     </row>
     <row r="5" spans="5:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="13" t="s">
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>10</v>
-      </c>
-      <c r="G5" s="9">
+        <v>35</v>
+      </c>
+      <c r="G5" s="2">
+        <v>40</v>
+      </c>
+      <c r="H5" s="2">
         <v>50</v>
       </c>
-      <c r="H5" s="9">
-        <v>100</v>
-      </c>
-      <c r="I5" s="10"/>
-      <c r="L5" s="19" t="s">
+      <c r="I5" s="9">
+        <v>60</v>
+      </c>
+      <c r="L5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="20">
-        <v>0.94569999999999999</v>
-      </c>
-      <c r="N5" s="21">
-        <v>0.94599999999999995</v>
-      </c>
-      <c r="O5" s="21">
-        <v>0.9456</v>
-      </c>
-      <c r="P5" s="22">
-        <v>0.94569999999999999</v>
-      </c>
-      <c r="T5" s="15" t="s">
+      <c r="M5" s="18">
+        <v>0.877</v>
+      </c>
+      <c r="N5" s="19">
+        <v>0.87067000000000005</v>
+      </c>
+      <c r="O5" s="19">
+        <v>0.87067000000000005</v>
+      </c>
+      <c r="P5" s="20">
+        <v>0.87063999999999997</v>
+      </c>
+      <c r="T5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="U5" s="34">
-        <v>0.94569999999999999</v>
-      </c>
-      <c r="V5" s="34">
-        <v>0.94599999999999995</v>
-      </c>
-      <c r="W5" s="34">
-        <v>0.9456</v>
-      </c>
-      <c r="X5" s="34">
-        <v>0.94569999999999999</v>
-      </c>
-      <c r="Y5" s="25"/>
+      <c r="U5" s="89">
+        <v>0.877</v>
+      </c>
+      <c r="V5" s="90">
+        <v>0.87067000000000005</v>
+      </c>
+      <c r="W5" s="90">
+        <v>0.87067000000000005</v>
+      </c>
+      <c r="X5" s="91">
+        <v>0.87063999999999997</v>
+      </c>
     </row>
     <row r="6" spans="5:25" x14ac:dyDescent="0.25">
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="14" t="s">
         <v>1</v>
       </c>
       <c r="F6" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="G6" s="4">
         <v>0.01</v>
       </c>
-      <c r="G6" s="4">
+      <c r="H6" s="4">
         <v>0.1</v>
       </c>
-      <c r="H6" s="4">
-        <v>1</v>
-      </c>
       <c r="I6" s="5"/>
-      <c r="T6" s="15" t="s">
+      <c r="T6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="U6" s="34">
-        <v>0.9456</v>
-      </c>
-      <c r="V6" s="34">
-        <v>0.95</v>
-      </c>
-      <c r="W6" s="34">
-        <v>0.94799999999999995</v>
-      </c>
-      <c r="X6" s="34">
-        <v>0.94540000000000002</v>
-      </c>
-      <c r="Y6" s="25"/>
+      <c r="U6" s="88">
+        <v>0.89470000000000005</v>
+      </c>
+      <c r="V6" s="47">
+        <v>0.89429999999999998</v>
+      </c>
+      <c r="W6" s="47">
+        <v>0.89470000000000005</v>
+      </c>
+      <c r="X6" s="87">
+        <v>0.89200000000000002</v>
+      </c>
     </row>
     <row r="7" spans="5:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="15" t="s">
         <v>2</v>
       </c>
       <c r="F7" s="6">
         <v>0</v>
       </c>
       <c r="G7" s="7">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="H7" s="7">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="I7" s="8">
-        <v>1</v>
-      </c>
-      <c r="T7" s="15" t="s">
+        <v>0.3</v>
+      </c>
+      <c r="T7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="U7" s="34">
-        <v>0.93400000000000005</v>
-      </c>
-      <c r="V7" s="34">
-        <v>0.93500000000000005</v>
-      </c>
-      <c r="W7" s="34">
-        <v>0.93879999999999997</v>
-      </c>
-      <c r="X7" s="34">
-        <v>0.93469999999999998</v>
-      </c>
-      <c r="Y7" s="25"/>
+      <c r="U7" s="88">
+        <v>0.86760000000000004</v>
+      </c>
+      <c r="V7" s="47">
+        <v>0.86660000000000004</v>
+      </c>
+      <c r="W7" s="47">
+        <v>0.86770000000000003</v>
+      </c>
+      <c r="X7" s="87">
+        <v>0.86709999999999998</v>
+      </c>
     </row>
     <row r="8" spans="5:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="T8" s="15" t="s">
+      <c r="T8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="U8" s="34">
-        <v>0.85860000000000003</v>
-      </c>
-      <c r="V8" s="34">
-        <v>0.86</v>
-      </c>
-      <c r="W8" s="34">
-        <v>0.86140000000000005</v>
-      </c>
-      <c r="X8" s="34">
-        <v>0.85860000000000003</v>
-      </c>
-      <c r="Y8" s="25"/>
+      <c r="U8" s="88">
+        <v>0.9022</v>
+      </c>
+      <c r="V8" s="47">
+        <v>0.90110000000000001</v>
+      </c>
+      <c r="W8" s="47">
+        <v>0.90229999999999999</v>
+      </c>
+      <c r="X8" s="87">
+        <v>0.9012</v>
+      </c>
     </row>
     <row r="9" spans="5:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="24"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="96"/>
+      <c r="I9" s="96"/>
+      <c r="J9" s="21"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N9" s="9" t="s">
+      <c r="N9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="O9" s="9" t="s">
+      <c r="O9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P9" s="10" t="s">
+      <c r="P9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="T9" s="15" t="s">
+      <c r="T9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U9" s="34">
-        <v>0.93469999999999998</v>
-      </c>
-      <c r="V9" s="34">
-        <v>0.92589999999999995</v>
-      </c>
-      <c r="W9" s="34">
-        <v>0.96150000000000002</v>
-      </c>
-      <c r="X9" s="34">
-        <v>0.94330000000000003</v>
-      </c>
-      <c r="Y9" s="35">
-        <v>0.18</v>
-      </c>
+      <c r="U9" s="88">
+        <v>0.87509999999999999</v>
+      </c>
+      <c r="V9" s="47">
+        <v>0.91149999999999998</v>
+      </c>
+      <c r="W9" s="47">
+        <v>0.90280000000000005</v>
+      </c>
+      <c r="X9" s="87">
+        <v>0.90710000000000002</v>
+      </c>
+      <c r="Y9" s="48"/>
     </row>
     <row r="10" spans="5:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="13" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="1">
+        <v>85</v>
+      </c>
+      <c r="G10" s="2">
+        <v>100</v>
+      </c>
+      <c r="H10" s="2">
+        <v>130</v>
+      </c>
+      <c r="I10" s="2">
+        <v>150</v>
+      </c>
+      <c r="J10" s="9">
+        <v>200</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10" s="18">
+        <v>0.89470000000000005</v>
+      </c>
+      <c r="N10" s="19">
+        <v>0.89429999999999998</v>
+      </c>
+      <c r="O10" s="19">
+        <v>0.89470000000000005</v>
+      </c>
+      <c r="P10" s="20">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="T10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="U10" s="17">
+        <v>0.85570000000000002</v>
+      </c>
+      <c r="V10" s="16">
+        <v>0.89490000000000003</v>
+      </c>
+      <c r="W10" s="16">
+        <v>0.90039999999999998</v>
+      </c>
+      <c r="X10" s="52">
+        <v>0.89759999999999995</v>
+      </c>
+      <c r="Y10" s="48"/>
+    </row>
+    <row r="11" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E11" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="3">
         <v>10</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G11" s="4">
+        <v>15</v>
+      </c>
+      <c r="H11" s="4">
         <v>20</v>
       </c>
-      <c r="H10" s="9">
+      <c r="I11" s="4">
         <v>30</v>
       </c>
-      <c r="I10" s="9">
-        <v>50</v>
-      </c>
-      <c r="J10" s="28">
-        <v>100</v>
-      </c>
-      <c r="L10" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="M10" s="20">
-        <v>0.9456</v>
-      </c>
-      <c r="N10" s="21">
-        <v>0.95</v>
-      </c>
-      <c r="O10" s="21">
-        <v>0.94799999999999995</v>
-      </c>
-      <c r="P10" s="22">
-        <v>0.94540000000000002</v>
-      </c>
-      <c r="T10" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="U10" s="17">
-        <v>0.92390000000000005</v>
-      </c>
-      <c r="V10" s="17">
-        <v>0.90559999999999996</v>
-      </c>
-      <c r="W10" s="17">
-        <v>0.95989999999999998</v>
-      </c>
-      <c r="X10" s="17">
-        <v>0.93200000000000005</v>
-      </c>
-      <c r="Y10" s="33">
-        <v>0.27200000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="5:25" x14ac:dyDescent="0.25">
-      <c r="E11" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="3">
-        <v>2</v>
-      </c>
-      <c r="G11" s="4">
-        <v>5</v>
-      </c>
-      <c r="H11" s="4">
-        <v>10</v>
-      </c>
-      <c r="I11" s="4">
-        <v>15</v>
-      </c>
-      <c r="J11" s="25"/>
+      <c r="J11" s="22"/>
     </row>
     <row r="12" spans="5:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="15" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="6">
+        <v>16</v>
+      </c>
+      <c r="G12" s="7">
         <v>32</v>
       </c>
-      <c r="G12" s="7">
-        <v>64</v>
-      </c>
       <c r="H12" s="7">
-        <v>128</v>
-      </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="26"/>
+        <v>45</v>
+      </c>
+      <c r="I12" s="7">
+        <v>60</v>
+      </c>
+      <c r="J12" s="23"/>
     </row>
     <row r="13" spans="5:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J13" s="23"/>
+      <c r="V13" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="14" spans="5:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="13"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="93"/>
+      <c r="I14" s="94"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N14" s="9" t="s">
+      <c r="N14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="O14" s="9" t="s">
+      <c r="O14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P14" s="10" t="s">
+      <c r="P14" s="9" t="s">
         <v>8</v>
       </c>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="W14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="X14" s="9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="15" spans="5:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="13" t="s">
         <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>10</v>
-      </c>
-      <c r="G15" s="9">
-        <v>20</v>
-      </c>
-      <c r="H15" s="9">
         <v>50</v>
       </c>
-      <c r="I15" s="10">
+      <c r="G15" s="2">
         <v>100</v>
       </c>
-      <c r="L15" s="19" t="s">
+      <c r="H15" s="2">
+        <v>150</v>
+      </c>
+      <c r="I15" s="9">
+        <v>200</v>
+      </c>
+      <c r="L15" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="M15" s="20">
-        <v>0.93400000000000005</v>
-      </c>
-      <c r="N15" s="21">
-        <v>0.93500000000000005</v>
-      </c>
-      <c r="O15" s="21">
-        <v>0.93879999999999997</v>
-      </c>
-      <c r="P15" s="22">
-        <v>0.93469999999999998</v>
+      <c r="M15" s="18">
+        <v>0.86760000000000004</v>
+      </c>
+      <c r="N15" s="19">
+        <v>0.86660000000000004</v>
+      </c>
+      <c r="O15" s="19">
+        <v>0.86770000000000003</v>
+      </c>
+      <c r="P15" s="20">
+        <v>0.86709999999999998</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U15" s="89">
+        <v>0.877</v>
+      </c>
+      <c r="V15" s="90">
+        <v>0.87067000000000005</v>
+      </c>
+      <c r="W15" s="90">
+        <v>0.87067000000000005</v>
+      </c>
+      <c r="X15" s="91">
+        <v>0.87063999999999997</v>
       </c>
     </row>
     <row r="16" spans="5:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="15" t="s">
         <v>1</v>
       </c>
       <c r="F16" s="6">
-        <v>1E-3</v>
+        <v>0.1</v>
       </c>
       <c r="G16" s="7">
         <v>0.01</v>
       </c>
       <c r="H16" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="I16" s="8"/>
-    </row>
-    <row r="17" spans="5:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.02</v>
+      </c>
+      <c r="I16" s="8">
+        <v>0.03</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="U16" s="88">
+        <v>0.89470000000000005</v>
+      </c>
+      <c r="V16" s="47">
+        <v>0.89429999999999998</v>
+      </c>
+      <c r="W16" s="47">
+        <v>0.89470000000000005</v>
+      </c>
+      <c r="X16" s="87">
+        <v>0.89200000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="5:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="5:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="U17" s="88">
+        <v>0.9022</v>
+      </c>
+      <c r="V17" s="47">
+        <v>0.90110000000000001</v>
+      </c>
+      <c r="W17" s="47">
+        <v>0.90229999999999999</v>
+      </c>
+      <c r="X17" s="87">
+        <v>0.9012</v>
+      </c>
+    </row>
+    <row r="18" spans="5:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="G18" s="12"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="31"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="93"/>
+      <c r="I18" s="94"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N18" s="9" t="s">
+      <c r="N18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="O18" s="9" t="s">
+      <c r="O18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P18" s="10" t="s">
+      <c r="P18" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="5:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E19" s="14" t="s">
+      <c r="T18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U18" s="88">
+        <v>0.90229999999999999</v>
+      </c>
+      <c r="V18" s="47">
+        <v>0.93640000000000001</v>
+      </c>
+      <c r="W18" s="47">
+        <v>0.92220000000000002</v>
+      </c>
+      <c r="X18" s="87">
+        <v>0.92930000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="5:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="3">
+        <v>60</v>
+      </c>
+      <c r="G19" s="4">
+        <v>70</v>
+      </c>
+      <c r="H19" s="4">
+        <v>100</v>
+      </c>
+      <c r="I19" s="5">
+        <v>130</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="M19" s="18">
+        <v>0.9022</v>
+      </c>
+      <c r="N19" s="19">
+        <v>0.90110000000000001</v>
+      </c>
+      <c r="O19" s="19">
+        <v>0.90229999999999999</v>
+      </c>
+      <c r="P19" s="20">
+        <v>0.9012</v>
+      </c>
+      <c r="T19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="U19" s="17">
+        <v>0.85740000000000005</v>
+      </c>
+      <c r="V19" s="16">
+        <v>0.88490000000000002</v>
+      </c>
+      <c r="W19" s="16">
+        <v>0.91359999999999997</v>
+      </c>
+      <c r="X19" s="52">
+        <v>0.89900000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="5:24" x14ac:dyDescent="0.25">
+      <c r="E20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4">
+        <v>2</v>
+      </c>
+      <c r="H20" s="4">
+        <v>4</v>
+      </c>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="5:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E21" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="G21" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="I21" s="8"/>
+    </row>
+    <row r="22" spans="5:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="5:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E23" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="9">
+      <c r="I23" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="K23" s="49"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="O23" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="P23" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q23" s="4"/>
+    </row>
+    <row r="24" spans="5:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E24" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24" s="9">
+        <v>16</v>
+      </c>
+      <c r="I24" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="J24" s="71">
+        <v>16</v>
+      </c>
+      <c r="K24" s="50"/>
+      <c r="L24" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="M24" s="16">
+        <v>0.87509999999999999</v>
+      </c>
+      <c r="N24" s="16">
+        <v>0.91149999999999998</v>
+      </c>
+      <c r="O24" s="16">
+        <v>0.90280000000000005</v>
+      </c>
+      <c r="P24" s="52">
+        <v>0.90710000000000002</v>
+      </c>
+      <c r="Q24" s="48"/>
+    </row>
+    <row r="25" spans="5:24" x14ac:dyDescent="0.25">
+      <c r="E25" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" s="72">
+        <v>2.3300000000000001E-7</v>
+      </c>
+      <c r="K25" s="50"/>
+    </row>
+    <row r="26" spans="5:24" x14ac:dyDescent="0.25">
+      <c r="E26" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="J26" s="72">
+        <v>1.7100000000000001E-7</v>
+      </c>
+      <c r="K26" s="50"/>
+    </row>
+    <row r="27" spans="5:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E27" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G27" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="I27" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="J27" s="78">
+        <v>0.3</v>
+      </c>
+      <c r="K27" s="50"/>
+    </row>
+    <row r="28" spans="5:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E28" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G28" s="9">
+        <v>16</v>
+      </c>
+      <c r="I28" s="79" t="s">
+        <v>24</v>
+      </c>
+      <c r="J28" s="80">
+        <v>16</v>
+      </c>
+      <c r="K28" s="50"/>
+    </row>
+    <row r="29" spans="5:24" x14ac:dyDescent="0.25">
+      <c r="E29" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" s="75" t="s">
+        <v>25</v>
+      </c>
+      <c r="J29" s="72">
+        <v>2.6199999999999999E-6</v>
+      </c>
+      <c r="K29" s="50"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+    </row>
+    <row r="30" spans="5:24" x14ac:dyDescent="0.25">
+      <c r="E30" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="J30" s="72">
+        <v>2.6000000000000001E-6</v>
+      </c>
+      <c r="K30" s="50"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="47"/>
+      <c r="N30" s="47"/>
+      <c r="O30" s="47"/>
+      <c r="P30" s="47"/>
+      <c r="Q30" s="48"/>
+    </row>
+    <row r="31" spans="5:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E31" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G31" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="I31" s="76" t="s">
+        <v>27</v>
+      </c>
+      <c r="J31" s="73">
+        <v>0.4</v>
+      </c>
+      <c r="K31" s="50"/>
+    </row>
+    <row r="32" spans="5:24" x14ac:dyDescent="0.25">
+      <c r="E32" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G32" s="9">
+        <v>16</v>
+      </c>
+      <c r="I32" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="J32" s="71">
+        <v>112</v>
+      </c>
+      <c r="K32" s="50"/>
+    </row>
+    <row r="33" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E33" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="J33" s="72">
+        <v>1.9399999999999999E-7</v>
+      </c>
+      <c r="K33" s="50"/>
+    </row>
+    <row r="34" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E34" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="J34" s="72">
+        <v>5.0599999999999998E-6</v>
+      </c>
+      <c r="K34" s="50"/>
+    </row>
+    <row r="35" spans="5:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E35" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G35" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="I35" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="J35" s="73">
+        <v>0.6</v>
+      </c>
+      <c r="K35" s="50"/>
+    </row>
+    <row r="36" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E36" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G36" s="5"/>
+      <c r="I36" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="J36" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="K36" s="50"/>
+    </row>
+    <row r="37" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E37" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="F37" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="G37" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="J37" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="K37" s="50"/>
+    </row>
+    <row r="38" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E38" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="F38" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="H19" s="10">
-        <v>70</v>
-      </c>
-      <c r="I19" s="4"/>
-      <c r="L19" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="M19" s="20">
-        <v>0.85860000000000003</v>
-      </c>
-      <c r="N19" s="21">
-        <v>0.86</v>
-      </c>
-      <c r="O19" s="21">
-        <v>0.86140000000000005</v>
-      </c>
-      <c r="P19" s="22">
-        <v>0.85860000000000003</v>
-      </c>
-    </row>
-    <row r="20" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E20" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="3">
-        <v>2</v>
-      </c>
-      <c r="G20" s="4">
-        <v>4</v>
-      </c>
-      <c r="H20" s="5">
+      <c r="G38" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="J38" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="K38" s="50"/>
+    </row>
+    <row r="39" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E39" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="F39" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="G39" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="J39" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="K39" s="50"/>
+    </row>
+    <row r="40" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E40" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="F40" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="G40" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="J40" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="K40" s="50"/>
+    </row>
+    <row r="41" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E41" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="F41" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="G41" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="J41" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="K41" s="50"/>
+    </row>
+    <row r="42" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E42" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="F42" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="G42" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="J42" s="61">
+        <v>3.8E-3</v>
+      </c>
+      <c r="K42" s="50"/>
+    </row>
+    <row r="43" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E43" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="F43" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="G43" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="J43" s="61">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="K43" s="50"/>
+    </row>
+    <row r="44" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E44" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="F44" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="G44" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="J44" s="61">
+        <v>0.996</v>
+      </c>
+      <c r="K44" s="50"/>
+    </row>
+    <row r="45" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E45" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="F45" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="G45" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="J45" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="K45" s="50"/>
+    </row>
+    <row r="46" spans="5:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E46" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="G46" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="J46" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="K46" s="50"/>
+    </row>
+    <row r="47" spans="5:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="5:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E48" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="F48" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G48" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="I48" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="J48" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="L48" s="1"/>
+      <c r="M48" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="N48" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="5:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E21" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="G21" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="H21" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="I21" s="4"/>
-    </row>
-    <row r="22" spans="5:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L22" s="1"/>
-      <c r="M22" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="O22" s="30" t="s">
+      <c r="O48" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="P22" s="30" t="s">
+      <c r="P48" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="Q22" s="32" t="s">
+      <c r="Q48" s="4"/>
+    </row>
+    <row r="49" spans="5:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E49" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G49" s="9">
+        <v>16</v>
+      </c>
+      <c r="I49" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="J49" s="70">
+        <v>64</v>
+      </c>
+      <c r="L49" s="10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="5:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L23" s="19" t="s">
+      <c r="M49" s="17">
+        <v>0.85570000000000002</v>
+      </c>
+      <c r="N49" s="16">
+        <v>0.89490000000000003</v>
+      </c>
+      <c r="O49" s="16">
+        <v>0.90039999999999998</v>
+      </c>
+      <c r="P49" s="52">
+        <v>0.89759999999999995</v>
+      </c>
+      <c r="Q49" s="48"/>
+    </row>
+    <row r="50" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E50" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="J50" s="66">
+        <v>1.24E-7</v>
+      </c>
+    </row>
+    <row r="51" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E51" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="J51" s="66">
+        <v>4.89E-7</v>
+      </c>
+    </row>
+    <row r="52" spans="5:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E52" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G52" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="I52" s="85" t="s">
+        <v>23</v>
+      </c>
+      <c r="J52" s="86">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="53" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E53" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G53" s="9">
         <v>16</v>
       </c>
-      <c r="M23" s="18">
-        <v>0.93469999999999998</v>
-      </c>
-      <c r="N23" s="17">
-        <v>0.92589999999999995</v>
-      </c>
-      <c r="O23" s="17">
-        <v>0.96150000000000002</v>
-      </c>
-      <c r="P23" s="17">
-        <v>0.94330000000000003</v>
-      </c>
-      <c r="Q23" s="33">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="24" spans="5:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="5:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L25" s="1"/>
-      <c r="M25" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="N25" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="O25" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="P25" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q25" s="32" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="5:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L26" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="M26" s="18">
-        <v>0.92390000000000005</v>
-      </c>
-      <c r="N26" s="17">
-        <v>0.90559999999999996</v>
-      </c>
-      <c r="O26" s="17">
-        <v>0.95989999999999998</v>
-      </c>
-      <c r="P26" s="17">
-        <v>0.93200000000000005</v>
-      </c>
-      <c r="Q26" s="33">
-        <v>0.27200000000000002</v>
+      <c r="I53" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="J53" s="54">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E54" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F54" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="J54" s="66">
+        <v>1.8300000000000001E-7</v>
+      </c>
+    </row>
+    <row r="55" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E55" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F55" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="J55" s="66">
+        <v>9.2700000000000004E-5</v>
+      </c>
+    </row>
+    <row r="56" spans="5:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E56" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="F56" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G56" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="I56" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="J56" s="68">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="57" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E57" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G57" s="9">
+        <v>16</v>
+      </c>
+      <c r="I57" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="J57" s="70">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="58" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E58" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="F58" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="J58" s="66">
+        <v>4.8900000000000003E-5</v>
+      </c>
+    </row>
+    <row r="59" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E59" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="F59" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="J59" s="66">
+        <v>1.4600000000000001E-5</v>
+      </c>
+    </row>
+    <row r="60" spans="5:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E60" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="F60" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G60" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="I60" s="85" t="s">
+        <v>32</v>
+      </c>
+      <c r="J60" s="86">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="61" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E61" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="F61" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G61" s="5"/>
+      <c r="I61" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="J61" s="54" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="62" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E62" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="F62" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="G62" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="J62" s="56" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="63" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E63" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="F63" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="G63" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="J63" s="56" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="64" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E64" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="F64" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="G64" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="J64" s="56" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="65" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E65" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="F65" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="G65" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="J65" s="56" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="66" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E66" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="F66" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="G66" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="J66" s="56" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="67" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E67" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="F67" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="G67" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="J67" s="56" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="68" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E68" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="F68" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="G68" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="J68" s="56" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="69" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E69" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="F69" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="G69" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="J69" s="56" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="70" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E70" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="F70" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="G70" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70" s="81" t="s">
+        <v>42</v>
+      </c>
+      <c r="J70" s="82">
+        <v>4.6999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="71" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E71" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="G71" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" s="83" t="s">
+        <v>43</v>
+      </c>
+      <c r="J71" s="84">
+        <v>0.88</v>
       </c>
     </row>
   </sheetData>
@@ -1290,7 +2862,7 @@
     <mergeCell ref="F4:I4"/>
     <mergeCell ref="F9:I9"/>
     <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F18:I18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
